--- a/doc/dialog sources/������ ������ ������ ����� ���������� ����������.xlsx
+++ b/doc/dialog sources/������ ������ ������ ����� ���������� ����������.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="7440" windowHeight="4695"/>
@@ -11,37 +11,76 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
+    <t>Мартан, они иные. Вот действительно, ты смотришь на них, разговариваешь с ними, и понимаешь — это нечто совсем иное, незнакомое человечеству. Не знаю, что нам даст контакт с ними, но он, контакт, должен быть. Однозначно. Даже если и не будет этого кризиса. Просто затем, чтобы мы стали лучше, они стали лучше...</t>
+  </si>
+  <si>
+    <t>Да просто. Прихожу я домой вчера, а Нтанда и сын смотрят документалку. Про тебя. В смысле про «Аврору», но большей частью про тебя. Вот я и подумал, просто интересно стало. В конце концов, и для меня, и для Нтанды, ты очень хороший друг, и мы волнуемся.</t>
+  </si>
+  <si>
+    <t>Конечно-конечно. Просто так, для запаха. *Он зажимает пальцем горлышко и не больше пяти капель вливает тебе в кружку. Следующие полчаса проходят в атмосфере молчаливого чаепития.* Давай рассказывай. Как тебе вообще это все? Дальний космос, огромный корабль, куча народа под твоим контролем…</t>
+  </si>
+  <si>
+    <t>Вот такой человек и нужен на этой должности, приятель. Четкий профессионал своего дела. Знаешь, я гляжу на тебя, и на душе у меня спокойно. По крайней мере, ты точно будешь стараться.</t>
+  </si>
+  <si>
+    <t>Холодновато, дружище, но в этом весь ты. Эмоции и профессионализм в равных пропорциях. Смешать, но не взбалтывать. Слушай, а расскажи мне про инопланетян. Какие они?</t>
+  </si>
+  <si>
+    <t>Не знаю, какими их видели фантасты, Мартан. Для меня они чужие есть и, скорее всего, чужими останутся. Нет, ты знаешь, я не расист и не ксенофоб — просто не до того мне. Быть может, если все у нас будет хорошо, то когда-нибудь кто-нибудь где-нибудь и будет с ними иметь дружбу, крутить шашни... У меня другая задача.</t>
+  </si>
+  <si>
+    <t>Да. Я и раньше не сомневался, а теперь уж точно уверен, что ты — самая лучшая кандидатура для своей должности. Хорошо, что мы не посадили в капитанское кресло очередного придурковатого вояку. Разносторонний человек имеет гораздо больше шансов всех нас спасти.</t>
+  </si>
+  <si>
+    <t>Я рад, что вы обо мне такого мнения. Вы мне тоже очень дороги… Мартан, мне пора идти. Я хотел бы посидеть еще, но дела, ты же понимаешь.</t>
+  </si>
+  <si>
+    <t>Ха-ха-ха. Отменная шутка. Нет. Просто я обо всем этом думал в последние дни. Не только о тебе, но и об «Авроре-2», о людях на ней… Нтанда и я ужасно волнуемся. Ты же друг семьи, как-никак.</t>
+  </si>
+  <si>
+    <t>Конечно, понимаю. Работа есть работа. Удачи тебе.</t>
+  </si>
+  <si>
+    <t>«Все течет, все меняется», говоришь? *Килмови утыкается в монитор, и стучит клавишами* Да, точно. Это выражение не зря казалось мне знакомым, есть совпадения в исторической энциклопедии. Если точнее, история Древней Греции. Мне продолжать?</t>
+  </si>
+  <si>
+    <t>Конечно, не пьешь. Просто так предложил. *Килмови наливает себе четверть кружки рома и добавляет туда кипящий кофе, с сахаром. Тебе же — просто кофе. Следующие полчаса проходят в непрерывном поглащении выпечки и кофе. Тут и в самом деле немудрено набрать пару кило.* Уф. Объелся слегка. Давай рассказывай. Как тебе вообще это все? Дальний космос, огромный корабль, куча народа под твоим контролем…</t>
+  </si>
+  <si>
+    <t>О, как обычно. Иного и не ожидал. Все такой же впечатлительный, как и раньше. Ладно. Вот, инопланетяне… Какие они? Расскажи. Действительно ли такие, какими их видели фантасты?</t>
+  </si>
+  <si>
+    <t>Ну, что же… Да, знаешь, пожалуй, хорошо, что на капитанском месте именно ты. Такой необычный — больше романтик, чем типичный военный. Это покажется странным, но я считаю, что если не сможешь ты, то не сможет никто.</t>
+  </si>
+  <si>
+    <t>Да ладно тебе, Мартан… Чего это ты так?</t>
+  </si>
+  <si>
+    <t>Просто. Нтанда и сын спрашивают о тебе. Они очень волнуются, да и я тоже. В конце концов, ты можешь быть героем, но для нас ты по-прежнему прежде всего лучший друг нашей семьи.</t>
+  </si>
+  <si>
+    <t>Ох… Мартан, я растроган. Мне очень и очень приятно, что вы так за меня волнуетесь. Но не стоит. Мне даже жаль сейчас тебя покидать, но покидать придется.</t>
+  </si>
+  <si>
     <t>Думаю, начать стоит с инопланетного контакта.</t>
   </si>
   <si>
-    <t>Мне кажется, мы смогли найти неплохую планету-сырьевой придаток.</t>
-  </si>
-  <si>
-    <t>Есть информация не терпящая отлагательств. Она касается Авроры-1.</t>
-  </si>
-  <si>
     <t>Да нет, ничего особенного. Всю информацию я уже приказал отослать в аналитический отдел, так что профессиональный отчет будет у тебя с минуты на минуту.</t>
   </si>
   <si>
     <t>Я весь внимание. *всем своим видом Килмови показывает, что он действительно обратился в слух*</t>
   </si>
   <si>
-    <t>Что же. Мы таки встретились с представителями других видов. Их всего пять. Быть может и больше, но даже если и так, то серьезной роли они не играют.</t>
-  </si>
-  <si>
     <t>*Килмови молча слушает дальше*</t>
   </si>
   <si>
-    <t>Клиски, Борки, Зорсаны, Бродяги, и Садовники. Все они очень мутные, мне трудно сказать что-то полноценное. Нормальный отчет, сам понимаешь, будет позже.</t>
-  </si>
-  <si>
     <t>Хорошо. Каковы отношения между ними всеми? Как была встречена ими ваша экспедиция?</t>
   </si>
   <si>
@@ -51,39 +90,9 @@
     <t>Подробнее, капитан.</t>
   </si>
   <si>
-    <t>Не могу описать точно. Может быть мне кажется просто потому, что они - действительно другие. А может быть все действительно очень странно. Я подробно расписал этот факт, в своем отчете.</t>
-  </si>
-  <si>
-    <t>*Килмови морщится* Слушай. Мы с тобой не первый год знакомы, и знаем, что такое отчет. Давай как в старые времена - кратко, своими словами.</t>
-  </si>
-  <si>
-    <t>Мартан, они кажутся мне нелогичными. Те же Клиски, которые при своей репутации вселенских торговцев и дипломатов, почему-то подчинены штуке под названием Кодекс Торговли. Я сам точно не знаю, что это такое, но даже называйся он по иному - Библией, Кораном, Талмудом - все это выглядит странно, признай. Для того уровня развития, на котором они находятся, такое просто нелогично.</t>
-  </si>
-  <si>
-    <t>Ладно. Я зайду к аналитикам лично, когда будет свободное время. Надеюсь, ты привез достаточно данных, для нормального анализа. С этим пока все. Что дальше?</t>
-  </si>
-  <si>
-    <t>Насчет добычи ресурсов на другой планете - есть неплохой вариант.</t>
-  </si>
-  <si>
-    <t>Кроме этого - ничего такого, что требует личного доклада. Вся информация уже у аналитиков, тебе лучше будет просто прочесть отчет.</t>
-  </si>
-  <si>
     <t>Отлично. Я тебя слушаю.</t>
   </si>
   <si>
-    <t>Ну-у-у…. Это очень сильно сказано, на самом деле. Просто есть координаты, а так, мы еще их не проверяли.</t>
-  </si>
-  <si>
-    <t>Планетка - просто сказка, честно говоря. Кислородная атмосфера, оптимальная температура. Расположение - не слишком далекое даже для обычных кораблей. Каустобиолиты - можно буквально голыми руками добывать. Включая нефть.</t>
-  </si>
-  <si>
-    <t>Планета неплохая, очень похожа на Землю, но ископаемый потенциал - в разы выше. Отличное место для колонии. Впрочем, как понимаешь, не без минусов. Исследовали мы эту крошку вдоль и поперек, и вот что касается другой стороны медали….</t>
-  </si>
-  <si>
-    <t>Я не понял, тебе что, мозги солнечным ветром продуло? Или у тебя времени много?! Молодец! Мо-ло-дец! Так держать! Черт возьми…. Ладно. Не будем. Как только уйдешь во второй полет - исследование этой планеты становится задачей первостепенной важности.</t>
-  </si>
-  <si>
     <t>Извини, Мартан. За всем и не успел.</t>
   </si>
   <si>
@@ -93,30 +102,12 @@
     <t>Касательно контактов с инопланетянами.</t>
   </si>
   <si>
-    <t>Кое-что про Аврору-1.</t>
-  </si>
-  <si>
-    <t>Больше ничего. Болтовней заниматься - лишь время тратить. Вся информация уже отослана в нужный отдел, скоро тебе принесут отчет.</t>
-  </si>
-  <si>
     <t>Минусы?</t>
   </si>
   <si>
-    <t>Звери там агрессивные. Ничего такого серьезного, я полагаю, просто выдайте колонистам пугачи. Где наша не пропадала.</t>
-  </si>
-  <si>
-    <t>Это не так уж и плохо. Если все настолько радужно, то одной проблемой у нас, считай меньше. Что еще?</t>
-  </si>
-  <si>
     <t>Пара слов про инопланетян.</t>
   </si>
   <si>
-    <t>Важная информация, которая может помочь в поисках Авроры-1.</t>
-  </si>
-  <si>
-    <t>В принципе это все. Ничего такого, что стоит персонального доклада.</t>
-  </si>
-  <si>
     <t>Так-так?</t>
   </si>
   <si>
@@ -126,78 +117,24 @@
     <t>Черт. Только проблем с колонизацией нам еще и не хватало. Как считаешь, игра стоит свеч?</t>
   </si>
   <si>
-    <t>Ты же меня знаешь, конечно стоит, черт побери! Возможно и будут некоторые жертвы, но ты сам знаешь, от этого очень много что зависит. В данной ситуации необходимо быть решительным.</t>
-  </si>
-  <si>
-    <t>Э, нет, Мартан, ты знаешь меня очень давно, зачем спрашиваешь? У нас тут некий затык. Паритет. Агрессивная фауна против огромного количества ресурсов. Стоит ли идти на риск, и пытаться развернуть там колонию? Я не знаю. Я не буду отвечать.</t>
-  </si>
-  <si>
-    <t>Ты знаешь меня очень много лет, и думаю, что ты не удивишься. Мой ответ - нет. Эта планета не стоит того, чтобы посылать людей на смерть. Будь она хоть самой что ни на есть ценной - в нашей бесконечной Вселенной таких найдется великое множество.</t>
-  </si>
-  <si>
     <t>И в этом весь ты. Какой напор, какой напор. *Килмори сжимает кулаки, и разжимает их*</t>
   </si>
   <si>
     <t>Что такое?</t>
   </si>
   <si>
-    <t>Да так.  Твой энтузиазм как всегда похвален, но я не считаю, что стоит обменивать ресурсы на кровь. Конечно, ты полностью прав, но…. Ладно. Просто не стоит так беспечно на это смотреть. Кровь не водица. Что там у нас дальше?</t>
-  </si>
-  <si>
-    <t>Примерно такой реакции я от тебя и ждал, в этом весь ты. Весьма правильная позиция: сначала все хорошенько обдумать, и лишь потом действовать. Но в данной ситуации я не требовал от тебя решения, а просил совета.</t>
-  </si>
-  <si>
     <t>Прости, но я действительно так думаю.</t>
   </si>
   <si>
-    <t>Да ладно. Все нормально. Просто тебе, как лицу весьма не последнему в данной проблеме, стоит порой высказываться более решительно. Но суть я понял: не стоит гнать коней. Что там у нас дальше?</t>
-  </si>
-  <si>
-    <t>Как и ожидалось, точно по психологической характеристике. Да и сам я, знаю тебя не первый год, не удивлен. Очень правильное мнение: нельзя просто так жертвовать людьми. Но ты очень однобоко смотришь на проблему.</t>
-  </si>
-  <si>
     <t>Это плохо?</t>
   </si>
   <si>
-    <t>Не плохо. Наивно. В той ситуации, в которой сейчас находимся мы - и даже не просто мы, а вся планета! - тебе стоит примириться с тем, что жертвы будут. Обязательно. Это неизбежно. Но, я тебя понял. Действовать надо аккуратно, без бряцанья стальными яйцами. С этим все. Что дальше?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Что? Аврора-1? Не ожидал. Это действительно очень важно. *Килмови лезет под стол, и достает оттуда телефон красного цвета, без циферблата набора* </t>
-  </si>
-  <si>
-    <t>Погоди! Ничего серьезного, пока что. Да и вообще…. Это похоже на слухи.</t>
-  </si>
-  <si>
-    <t>Ты говорил, что это важная информация. Ну да ладно. *Килмови убирает руку с трубки, но телефон оставлят на столе*</t>
-  </si>
-  <si>
-    <t>В общем, по определенной информации, Аврора-1, с ее экипажем - в порядке. В том смысле, что живы и здоровы.</t>
-  </si>
-  <si>
     <t>Это все? Мда. И где же они?</t>
   </si>
   <si>
     <t>Неизвестно.</t>
   </si>
   <si>
-    <t>Хм…. Так. А откуда ты получил столь ценные сведения?</t>
-  </si>
-  <si>
-    <t>Предоставил один очень странный инопланетянин. Садовник. Он отказался давать более подробную информацию, сославшись на то, что это якобы не мой путь, и не стоит мне пытаться следовать путем Авроры-1.</t>
-  </si>
-  <si>
-    <t>Так. "Путь". Что за Путь? Мне кажется, это нечто большее, чем просто выражение.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Я и сам не знаю, что это такое: просто отговорка, или же нечто большее. Возможно что я просто не слишком хорошо понял инопланетянина, и он имел в виду нечто совсем другое. </t>
-  </si>
-  <si>
-    <t>И действительно, ты прав. Конкретно эти Садовники, живут по так называемой "Философии Пути". Точной сути ее  не знаю, но один из других моих новых инопланетных знакомых, описал ее как: "Все течет, все меняется.</t>
-  </si>
-  <si>
-    <t>Значит надо узнать. Конечно, весьма велик тот шанс, что тебя просто обманули… непонятно зачем, конечно, но все равно. Если есть шанс найти Аврору-1 - ты должен это сделать. Только не стоит забывать, что это задание далеко не первостепенное. Ты хочешь обсудить что-то еще?</t>
-  </si>
-  <si>
     <t>Кое-что про инопланетян.</t>
   </si>
   <si>
@@ -207,96 +144,33 @@
     <t>Да нет, персональный доклад можно и заканчивать. В конце концов, есть вещи более важные сейчас.</t>
   </si>
   <si>
-    <t>"Все течет, все меняется", говоришь? *Килмови утыкается в монитор, и стучит клавишами* Да, точно. Это выражение не зря казалось мне знакомым, есть совпадения в исторической энциклопедии. Если точнее - история Древней Греции. Мне продолжать?</t>
-  </si>
-  <si>
     <t>Просто перешли это все аналитикам, и займемся серьезными делами.</t>
   </si>
   <si>
     <t>Конечно. Это может оказаться очень важно.</t>
   </si>
   <si>
-    <t xml:space="preserve">Как скажешь. Но все равно, я бы советовал тебе залезть в энциклопедию на досуге. </t>
-  </si>
-  <si>
     <t>Я хотел обсудить инопланетный вопрос.</t>
   </si>
   <si>
-    <t>Небольшой доклад, о возможной колонизации неплохой планеты.</t>
-  </si>
-  <si>
     <t>Пора заканчивать. Я не тороплюсь, но не стоит попусту терять время.</t>
   </si>
   <si>
-    <t>Что же…. Гераклит. Древнегреческий историк. Досократик. Забавно - он изучал космос! Конечно, не наш космос, а в философском смысле, но все равно, это интересно.  Полная версия упомянутой тобой фразы, звучит как:  "Все течет, все меняется, и ничего не пребывает". Хм....</t>
-  </si>
-  <si>
-    <t>И ничего не пребывает…. Мрачновато, если так подумать.</t>
-  </si>
-  <si>
-    <t>Действительно. Но взглянуть можно по разному. Жаль, что у меня нет времени провести более подробную аналитику…. В любом случае, я перешлю все нашим. Да и на Аврору-2 тоже перешлю копию файлов, проверь свой компьютер, как будешь свободен. Ты хочешь обсудить что-то еще?</t>
-  </si>
-  <si>
-    <t>Погоди! Ты не слишком торопишься? Нет получасика для разговора со старым другом?</t>
-  </si>
-  <si>
     <t>Мартан, мне очень жаль, но дела не ждут. Мне действительно нужно уходить.</t>
   </si>
   <si>
-    <t>Конечно. И если уж это "разговор со старым другом", то старому другу лучше достать выпечку своей жены. Никак не пойму, по чему я скучал больше: по тебе, или по пирожкам твоей благоверной?</t>
-  </si>
-  <si>
-    <t>*Мартан качает головой* Жаль. Конечно, это пустяки, я просто хотел посидеть, поговорить о том, о сем…. Ладно. Надеюсь, ты зайдешь ко мне перед следующим вылетом.</t>
-  </si>
-  <si>
     <t>Надеюсь, но не обещаю. Мне надо идти.</t>
   </si>
   <si>
-    <t>*буквально за десять минут, Мартан быстро убирает все лишнее, и стол преображается. Теперь на нем стоит старый электрочайник и небольшая миска с самодельными кексиками. Плюс ко всему, улыбнувшись уголком рта, Килмови достает небольшую бутылку рома*</t>
-  </si>
-  <si>
     <t>Ого. Кофе с ромом? Это мы завсегда. Мне побольше рому, и поменьше кофе, хе-хе.</t>
   </si>
   <si>
     <t>Мартан, мне только пару капель. Ты знаешь, я не особый любитель.</t>
   </si>
   <si>
-    <t>Э-не-не. Если я отчего-то и умру, то пусть это будет не алкоголизм а ожирение. Ты же знаешь, я не пью.</t>
-  </si>
-  <si>
-    <t>*он разливает. За неспешной трапезой проходит несколько минут* Давай рассказывай. Как тебе вообще это все? Дальний космос, огромный корабль, куча народу под твоим контролем….</t>
-  </si>
-  <si>
-    <t>Хех. Ну, знаешь, поначалу было стремно. А потом - нет. Очень быстро, ты же меня знаешь. Изучить. Адаптироваться. Действовать! Победить.</t>
-  </si>
-  <si>
-    <t>Это прекрасная возможность проявить себя. Плюс ко всему, я бы не сказал, что отношения между людьми на Авроре-2 резко отличаются, по сравнению с отношениями на Земле. То же самое, только антураж другой. Думаю, что мне не составит труда работать максимально продуктивно.</t>
-  </si>
-  <si>
-    <t>Нелегко. Впрочем, я думаю, что поначалу всегда нелегко, но, ты должен понимать - Аврора это Аврора. Конечно, дальний космос, инопланетяне, куча подчиненных…. Это огромная ответственность для меня. Ты знаешь, я всегда не очень хорошо проявлял себя. В этот раз постараюсь справиться, на кону слишком уж многое.</t>
-  </si>
-  <si>
-    <t>Хех. Все так же уверен в себе и импульсивен. Ладно. Вот, инопланетяне…. Какие они, расскажи? Действительно ли такие, какими их видели фантасты?</t>
-  </si>
-  <si>
-    <t>Я не знаю, какими их видели фантасты, Мартан. Для меня - они чужие есть, и скорее всего чужими останутся. Нет, ты знаешь, я не расист и не ксенофоб - просто не до того мне. Быть может если все у нас будет хорошо, то когда-нибудь кто-нибудь где-нибудь и будет с ними иметь дружбу, крутить шашни.... У меня другая задача.</t>
-  </si>
-  <si>
-    <t>Не задумывался. Наверное, это знак того, что они оказались совсем обычными, пусть и странными. Да. Странными. Это их и характеризует. Конечно, на людей они не похожи, но по сути - те же люди, просто другого строения. Это можно считать ответом на твой вопрос.</t>
-  </si>
-  <si>
-    <t>Мартан, они иные. Вот действительно, ты смотришь на них, разговариваешь с ними, и понимаешь - это нечто совсем иное, незнакомое человечеству. Не знаю, что нам даст контакт с ними, но он должен быть. Однозначно. Даже если и не будет этого кризиса. Просто затем, чтобы мы стали лучше, они стали лучше....</t>
-  </si>
-  <si>
-    <t>Вот такой человек и нужен этой должности, приятель. Четкий профессионал своего дела. Знаешь, я гляжу на тебя, и на душе мне спокойно. Быть может тебе у не удастся, но зато ты будешь стараться.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Еще как буду. А чего это ты о таких вещах-то заговорил? </t>
   </si>
   <si>
-    <t>Да просто. Прихожу я домой вчера, а Нтанда и сын смотрят документалку. Про тебя. В смысле, про Аврору, но большей частью про тебя. Вот я и подумал, просто интересно стало. В конце концов, и для меня и для Нтанды, ты очень хороший друг, и мы волнуемся.</t>
-  </si>
-  <si>
     <t>Эко тебя развезло. Раньше за тобой такой сентиментальности не замечал, друг. Но мне приятно видеть, что обо мне так беспокоятся. Хех! Мне жаль, но мне пора уходить. Удачи тебе.</t>
   </si>
   <si>
@@ -306,51 +180,12 @@
     <t xml:space="preserve">А знаешь, и то верно. </t>
   </si>
   <si>
-    <t>Конечно-конечно. Просто так, для запаха. *он действительно зажимает пальцем горлышко, и не больше пяти капель вливает тебе в кружку. Следующие полчаса проходят в молчаливом чаепитии* Давай рассказывай. Как тебе вообще это все? Дальний космос, огромный корабль, куча народу под твоим контролем….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хех. Ну, знаешь, поначалу было стремно. А потом - нет. Очень быстро, ты же меня знаешь. Изучить. Адаптироваться. Действовать! Победить. </t>
-  </si>
-  <si>
-    <t>Холодновато, дружище, но в этом весь ты. Эмоции и профессионализм в равных пропорциях. Смешать не взбалтывая. Слушай. Расскажи мне про инопланетян. Какие они?</t>
-  </si>
-  <si>
-    <t>Да. Я и раньше не сомневался, а теперь уж точно уверен, что ты - самая лучшая кандидатура для своей должности. Хорошо, что мы не посадили в капитанское кресло очередного придурковатого вояку. Разносторонний человек имеет гораздо больший шанс всех нас спасти.</t>
-  </si>
-  <si>
     <t>Тебя повело на странные разговоры. Ты же не так много выпил.</t>
   </si>
   <si>
-    <t>Ха-ха-ха. Отменная шутка. Нет. Просто я обо всем этом думал в последние дни. Не только о тебе - хотя и о тебе тоже - именно об Авроре-2, о людях на ней…. Нтанда и я ужасно волнуемся. Ты же друг семьи, как-никак.</t>
-  </si>
-  <si>
-    <t>Я рад, что вы обо мне такого мнения. Вы мне тоже очень дороги…. Мартан, мне пора идти. Я хотел бы посидеть еще, но дела, ты же понимаешь.</t>
-  </si>
-  <si>
-    <t>Конечно понимаю. Работа есть работа. Удачи тебе.</t>
-  </si>
-  <si>
     <t>Тебе тоже. Передавай Нтанде и сыну привет.</t>
   </si>
   <si>
-    <t>Конечно не пьешь. Просто так предложил. *Килмови наливает себе четверть кружки рома, и доливает туда кипящий кофе, с сахаром. Тебе же - просто кофе. Следующие полчаса проходят в непрерывном поедании выпечки, и двух чашках кофе. Тут и в самом деле немудрено набрать пару кило* Уф. Объелся слегка. Давай рассказывай. Как тебе вообще это все? Дальний космос, огромный корабль, куча народу под твоим контролем….</t>
-  </si>
-  <si>
-    <t>О, как обычно. Иного и не ожидал. Все такой же впечатлительный как и раньше. Ладно. Вот, инопланетяне…. Какие они, расскажи? Действительно ли такие, какими их видели фантасты?</t>
-  </si>
-  <si>
-    <t>Ну, что же…. Да, знаешь, пожалуй, хорошо, что на капитанском месте именно ты. Такой необычный, знаешь, больше романтик, чем типичный военный. Это покажется странным, но я считаю, что если не сможешь ты - не сможет никто.</t>
-  </si>
-  <si>
-    <t>Да ладно тебе, Мартан…. Чего это ты так?</t>
-  </si>
-  <si>
-    <t>Просто. Нтанда и сын спрашивают о тебе. Они очень волнуются, да и я тоже. В конце концов, ты можешь быть героем, но для нас - ты по прежнему лучший друг нашей семьи.</t>
-  </si>
-  <si>
-    <t>Ох…. Мартан, я растроган. Мне очень и очень приятно, что вы так за меня волнуетесь. Но не стоит. Мне даже жаль сейчас тебя покидать, но покидать придется.</t>
-  </si>
-  <si>
     <t>А. Да. Конечно. Прости, что я тебя задерживаю, просто захотелось немного поговорить. Надеюсь, таких разговоров будет еще немало.</t>
   </si>
   <si>
@@ -373,13 +208,178 @@
   </si>
   <si>
     <t>klisk.philosophy_research</t>
+  </si>
+  <si>
+    <t>Мне кажется, мы смогли найти неплохую планету на роль сырьевого придатка.</t>
+  </si>
+  <si>
+    <t>Есть информация не терпящая отлагательств. Она касается «Авроры-1».</t>
+  </si>
+  <si>
+    <t>Что же. Мы таки встретились с представителями других видов. Их всего пять. Быть может, больше. Но даже если и так, то серьезной роли они не играют.</t>
+  </si>
+  <si>
+    <t>Клиски, борки, зорсаны, бродяги, и садовники. Все они очень мутные, мне трудно сказать что-то полноценное. Нормальный отчет, сам понимаешь, будет позже.</t>
+  </si>
+  <si>
+    <t>Не могу описать точно. Может быть, мне кажется — просто потому, что они действительно другие. А может быть, все действительно очень странно. Я подробно расписал этот факт в своем отчете.</t>
+  </si>
+  <si>
+    <t>*Килмови морщится* Слушай. Мы с тобой не первый год знакомы. И оба знаем, что такое отчет. Давай как в старые времена — кратко, своими словами.</t>
+  </si>
+  <si>
+    <t>Мартан, они кажутся мне нелогичными. Те же клиски, которые при своей репутации вселенских торговцев и дипломатов почему-то подчинены штуке под названием Торговый Кодекс. Я сам точно не знаю, что это такое, но даже называйся оно по-иному — Библией, Кораном, Талмудом, — все это в любом случае выглядело бы странно, признай. Для того уровня развития, на котором они находятся, такое просто нелогично.</t>
+  </si>
+  <si>
+    <t>Ладно. Я зайду к аналитикам лично, когда будет свободное время. Надеюсь, ты привез достаточно данных для нормального анализа. С этим пока все. Что дальше?</t>
+  </si>
+  <si>
+    <t>Насчет добычи ресурсов на другой планете — есть неплохой вариант.</t>
+  </si>
+  <si>
+    <t>Есть информация, не терпящая отлагательств. Она касается «Авроры-1».</t>
+  </si>
+  <si>
+    <t>Более ничего такого, что требует личного доклада. Вся информация уже у аналитиков, тебе лучше будет просто прочесть отчет.</t>
+  </si>
+  <si>
+    <t>Ну-у-у… Это очень сильно сказано, на самом деле. Просто есть координаты, и мы еще их не проверяли.</t>
+  </si>
+  <si>
+    <t>Планетка — просто сказка, честно говоря. Кислородная атмосфера, оптимальная температура. Расположение не слишком далекое даже для обычных кораблей. Каустобиолиты можно буквально голыми руками добывать. Включая нефть.</t>
+  </si>
+  <si>
+    <t>Планета неплохая, очень похожа на Землю, но ископаемый потенциал в разы выше. Отличное место для колонии. Впрочем, как понимаешь, не без минусов. Исследовали мы эту крошку вдоль и поперек, и вот что касается другой стороны медали…</t>
+  </si>
+  <si>
+    <t>Я не понял, тебе что, мозги солнечным ветром продуло? Или у тебя времени много?! Молодец! Мо-ло-дец! Так держать! Черт возьми… Ладно. Не будем. Как только уйдешь во второй полет, исследование этой планеты станет задачей первостепенной важности.</t>
+  </si>
+  <si>
+    <t>Кое-что про «Аврору-1».</t>
+  </si>
+  <si>
+    <t>Больше ничего. Болтовней заниматься — лишь время тратить. Вся информация уже отослана в нужный отдел, скоро тебе принесут отчет.</t>
+  </si>
+  <si>
+    <t>Звери там агрессивные. Ничего такого серьезного, я полагаю. Просто выдайте колонистам пугачи. Где наша не пропадала.</t>
+  </si>
+  <si>
+    <t>Это не так уж и плохо. Если все настолько радужно, то одной проблемой у нас, считай, меньше. Что еще?</t>
+  </si>
+  <si>
+    <t>Важная информация, которая может помочь в поисках «Авроры-1».</t>
+  </si>
+  <si>
+    <t>В принципе, это все. Ничего такого, что стоит персонального доклада.</t>
+  </si>
+  <si>
+    <t>Ты же меня знаешь — конечно, стоит, черт побери! Возможно, будут некоторые жертвы, но ты сам знаешь, что от этого зависит очень многое. В данной ситуации необходимо быть решительным.</t>
+  </si>
+  <si>
+    <t>Э, нет, Мартан, ты знаешь меня очень давно, зачем спрашиваешь? У нас тут некий затык. Паритет. Агрессивная фауна против огромного количества ресурсов. Стоит ли идти на риск и пытаться развернуть там колонию? Я не знаю. Я не буду отвечать.</t>
+  </si>
+  <si>
+    <t>Ты знаешь меня очень много лет, и думаю, что ты не удивишься. Мой ответ — нет. Эта планета не стоит того, чтобы посылать людей на смерть. Будь она хоть самой что ни на есть ценной, в нашей бесконечной Вселенной таких найдется великое множество.</t>
+  </si>
+  <si>
+    <t>Да так. Твой энтузиазм, как всегда, похвален, но я не считаю, что стоит обменивать ресурсы на кровь. Конечно, ты полностью прав, но… Ладно. Просто не стоит так беспечно на это смотреть. Кровь — не водица. Что там у нас дальше?</t>
+  </si>
+  <si>
+    <t>Примерно такой реакции я от тебя и ждал, в этом весь ты. Весьма правильная позиция: сначала все хорошенько обдумать и лишь потом действовать. Но в данной ситуации я не требовал от тебя решения, а просил совета.</t>
+  </si>
+  <si>
+    <t>Да ладно. Все нормально. Просто тебе, как лицу далеко не последнему в данной проблеме, стоит порой высказываться более решительно. Но суть я понял: не стоит гнать коней. Что там у нас дальше?</t>
+  </si>
+  <si>
+    <t>Как и ожидалось, точно по психологической характеристике. Да и знаю я тебя не первый год, так что не удивлен. Очень правильное мнение. Нельзя просто так жертвовать людьми. Но ты очень однобоко смотришь на проблему.</t>
+  </si>
+  <si>
+    <t>Не плохо. Наивно. В той ситуации, в которой сейчас находимся мы — и даже не просто мы, а вся планета! — тебе стоит примириться с тем, что жертвы будут. Обязательно. Это неизбежно. Но я тебя понял. Действовать надо аккуратно, без бряцанья стальными яйцами. С этим все. Что дальше?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что? «Аврора-1»? Не ожидал. Это действительно очень важно. *Килмови лезет под стол и достает оттуда телефон красного цвета, без циферблата набора* </t>
+  </si>
+  <si>
+    <t>Погоди! Ничего серьезного, пока что. Да и вообще… Это похоже на слухи.</t>
+  </si>
+  <si>
+    <t>Ты говорил, что это важная информация. Ну да ладно. *Килмови убирает руку с трубки, но телефон оставляет на столе*</t>
+  </si>
+  <si>
+    <t>В общем, по некоторым данным, «Аврора-1» и ее экипаж — в порядке. В том смысле, что живы и здоровы.</t>
+  </si>
+  <si>
+    <t>Хм… Так. А откуда ты получил столь ценные сведения?</t>
+  </si>
+  <si>
+    <t>Их предоставил один очень странный инопланетянин. Садовник. Он отказался давать более подробную информацию, сославшись на то, что это якобы не мой путь. Сказал, что не стоит мне пытаться следовать путем «Авроры-1».</t>
+  </si>
+  <si>
+    <t>Так. «Путь». Что за путь? Мне кажется, это нечто большее, чем просто выражение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я и сам не знаю, что это такое: просто отговорка или же нечто большее. Возможно, что я просто не слишком хорошо понял инопланетянина, и он имел в виду нечто совсем другое. </t>
+  </si>
+  <si>
+    <t>И действительно, ты прав. Конкретно эти садовники живут по так называемой «Философии Пути». Точной сути ее я не знаю, но один из других моих новых инопланетных знакомых описал ее так: «Все течет, все меняется».</t>
+  </si>
+  <si>
+    <t>Значит, надо узнать. Конечно, весьма велик тот шанс, что тебя просто обманули… Непонятно зачем, конечно, но все равно. Если есть шанс найти «Аврору-1», ты должен это сделать. Только не стоит забывать, что это задание далеко не первостепенное. Ты хочешь обсудить что-то еще?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как скажешь. Но все равно я бы советовал тебе залезть в энциклопедию на досуге. </t>
+  </si>
+  <si>
+    <t>Небольшой доклад по поводу возможной колонизации неплохой планеты.</t>
+  </si>
+  <si>
+    <t>Что же… Гераклит. Древнегреческий историк. Досократик. Забавно — он изучал космос! Конечно, не наш космос, а в философском смысле, но все равно, это интересно.  Полная версия упомянутой тобой фразы звучит как:  "Все течет, все меняется, и ничего не пребывает". Хм...</t>
+  </si>
+  <si>
+    <t>И ничего не пребывает… Мрачновато, если так подумать.</t>
+  </si>
+  <si>
+    <t>Действительно. Но взглянуть можно по-разному. Жаль, что у меня нет времени провести более подробную аналитику… В любом случае я перешлю все нашим. Да и на «Аврору-2» тоже отправлю копию файлов — проверь свой компьютер, как будешь свободен. Ты хочешь обсудить что-то еще?</t>
+  </si>
+  <si>
+    <t>Погоди! Ты не слишком торопишься? Найдется полчасика для разговора со старым другом?</t>
+  </si>
+  <si>
+    <t>Конечно. И если уж это «разговор со старым другом», то старому другу лучше достать выпечку своей жены. Никак не пойму, по чему я скучал больше: по тебе или по пирожкам твоей благоверной.</t>
+  </si>
+  <si>
+    <t>*Мартан качает головой* Жаль. Конечно, это пустяки, я просто хотел посидеть, поговорить о том, о сем… Ладно. Надеюсь, ты зайдешь ко мне перед следующим вылетом.</t>
+  </si>
+  <si>
+    <t>*Буквально за десять минут Мартан убирает все лишнее, и стол преображается. Теперь на нем стоит старый электрочайник и небольшая миска с самодельными кексиками. Плюс ко всему, улыбнувшись уголком рта, Килмови достает небольшую бутылку рома.*</t>
+  </si>
+  <si>
+    <t>Э-не-не. Если я отчего-то и умру, то пусть это будет не алкоголизм, а ожирение. Ты же знаешь, я не пью.</t>
+  </si>
+  <si>
+    <t>*Он разливает. За неспешной трапезой проходит несколько минут.* Давай рассказывай. Как тебе вообще это все? Дальний космос, огромный корабль, куча народа под твоим контролем…</t>
+  </si>
+  <si>
+    <t>Это прекрасная возможность проявить себя. К тому же я бы не сказал, что отношения между людьми на «Авроре-2» резко отличаются по сравнению с земными. То же самое, только антураж другой. Думаю, что мне не составит труда работать максимально продуктивно.</t>
+  </si>
+  <si>
+    <t>Хех. Ну, знаешь, поначалу было стремно. А потом — нет. Очень быстро привык, ты же меня знаешь. Изучить. Адаптироваться. Действовать! Победить.</t>
+  </si>
+  <si>
+    <t>Нелегко. Впрочем, я думаю, что поначалу всегда нелегко, но, ты должен понимать, «Аврора» — это «Аврора». Дальний космос, инопланетяне, куча подчиненных… Это огромная ответственность для меня. Ты знаешь, я зачастую не очень хорошо проявлял себя. В этот раз постараюсь справиться, на кону слишком уж многое.</t>
+  </si>
+  <si>
+    <t>Хех. Все так же уверен в себе и импульсивен. Ладно. Вот, инопланетяне… Какие они? Расскажи. Действительно ли такие, какими их видели фантасты?</t>
+  </si>
+  <si>
+    <t>Не задумывался. Наверное, это знак того, что они оказались совсем обычными, пусть и странными. Да. Странными. Это их и характеризует. Конечно, на людей они не похожи, но по сути — те же люди, просто другого строения. Это можно считать ответом на твой вопрос.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +387,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -411,25 +417,22 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -467,7 +470,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -501,7 +504,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -536,10 +538,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -712,1498 +713,1169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="91.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="75.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="30">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1">
         <v>21</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="45">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>31</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="90">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1">
         <v>7</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" ht="45">
       <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1">
         <v>21</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="30">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1">
         <v>31</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60">
       <c r="A24" s="1">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1">
         <v>21</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="30">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1">
         <v>31</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30">
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1">
         <v>12</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="1">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1">
         <v>21</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1">
         <v>31</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="60">
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
         <v>14</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" s="1">
         <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45">
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1">
         <v>15</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+    </row>
+    <row r="40" spans="1:3" ht="60">
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1">
         <v>17</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+    </row>
+    <row r="41" spans="1:3" ht="60">
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1">
         <v>19</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" ht="30">
       <c r="A42" s="1">
         <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1">
         <v>16</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" ht="60">
       <c r="A44" s="1">
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1">
         <v>21</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1">
         <v>31</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" ht="45">
       <c r="A48" s="1">
         <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1">
         <v>18</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" ht="45">
       <c r="A50" s="1">
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1">
         <v>21</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C53" s="1">
         <v>31</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" ht="45">
       <c r="A54" s="1">
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1">
         <v>20</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" ht="60">
       <c r="A56" s="1">
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+    </row>
+    <row r="58" spans="1:3">
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1">
         <v>21</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+    </row>
+    <row r="59" spans="1:3">
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C59" s="1">
         <v>31</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" ht="45">
       <c r="A60" s="1">
         <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="B61" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C61" s="1">
         <v>22</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" ht="30">
       <c r="A62" s="1">
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30">
       <c r="B63" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1">
         <v>23</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>23</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C65" s="1">
         <v>24</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="45">
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C67" s="1">
         <v>25</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" ht="30">
       <c r="A68" s="1">
         <v>25</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="45">
       <c r="B69" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1">
         <v>26</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="45">
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C70" s="1">
         <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60">
       <c r="A71" s="1">
         <v>26</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="B72" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="B73" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1">
         <v>8</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="30">
       <c r="B74" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1">
         <v>31</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" ht="60">
       <c r="A75" s="1">
         <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="B76" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C76" s="1">
         <v>28</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="B77" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C77" s="1">
         <v>29</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" ht="30">
       <c r="A78" s="1">
         <v>28</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="B79" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="B80" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C80" s="1">
         <v>8</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+    </row>
+    <row r="81" spans="1:3">
       <c r="B81" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C81" s="1">
         <v>31</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" ht="60">
       <c r="A82" s="1">
         <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="B83" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C83" s="1">
         <v>30</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" ht="60">
       <c r="A84" s="1">
         <v>30</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="B85" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+    </row>
+    <row r="86" spans="1:3">
       <c r="B86" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C86" s="1">
         <v>8</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+    </row>
+    <row r="87" spans="1:3" ht="30">
       <c r="B87" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C87" s="1">
         <v>31</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" ht="30">
       <c r="A88" s="1">
         <v>31</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="B89" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C89" s="1">
         <v>32</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+    </row>
+    <row r="90" spans="1:3" ht="45">
       <c r="B90" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C90" s="1">
         <v>33</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" ht="45">
       <c r="A91" s="1">
         <v>32</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="B92" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C92" s="1">
         <v>-1</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" ht="60">
       <c r="A93" s="1">
         <v>33</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30">
       <c r="B94" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C94" s="1">
         <v>34</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+    </row>
+    <row r="95" spans="1:3">
       <c r="B95" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C95" s="1">
         <v>39</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+    </row>
+    <row r="96" spans="1:3" ht="30">
       <c r="B96" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C96" s="1">
         <v>44</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" ht="45">
       <c r="A97" s="1">
         <v>34</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30">
       <c r="B98" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C98" s="1">
         <v>35</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+    </row>
+    <row r="99" spans="1:3" ht="60">
       <c r="B99" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C99" s="1">
         <v>40</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+    </row>
+    <row r="100" spans="1:3" ht="75">
       <c r="B100" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C100" s="1">
         <v>45</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" ht="30">
       <c r="A101" s="1">
         <v>35</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="75">
       <c r="B102" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:3" ht="60">
       <c r="B103" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C103" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+    <row r="104" spans="1:3" ht="75">
       <c r="B104" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C104" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="45">
       <c r="A105" s="1">
         <v>36</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="B106" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C106" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="60">
       <c r="A107" s="1">
         <v>37</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="45">
       <c r="B108" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C108" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>38</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="B110" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C110" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="60">
       <c r="A111" s="1">
         <v>39</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30">
       <c r="B112" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C112" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+    <row r="113" spans="1:3" ht="60">
       <c r="B113" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C113" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+    <row r="114" spans="1:3" ht="75">
       <c r="B114" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C114" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="45">
       <c r="A115" s="1">
         <v>40</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="75">
       <c r="B116" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C116" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:3" ht="60">
       <c r="B117" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C117" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+    <row r="118" spans="1:3" ht="75">
       <c r="B118" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="60">
       <c r="A119" s="1">
         <v>41</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="B120" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C120" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="45">
       <c r="A121" s="1">
         <v>42</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30">
       <c r="B122" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C122" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>43</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="B124" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C124" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="90">
       <c r="A125" s="1">
         <v>44</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30">
       <c r="B126" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C126" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+    <row r="127" spans="1:3" ht="60">
       <c r="B127" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C127" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+    <row r="128" spans="1:3" ht="75">
       <c r="B128" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C128" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="45">
       <c r="A129" s="1">
         <v>45</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="75">
       <c r="B130" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C130" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+    <row r="131" spans="1:3" ht="60">
       <c r="B131" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C131" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+    <row r="132" spans="1:3" ht="75">
       <c r="B132" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C132" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="60">
       <c r="A133" s="1">
         <v>46</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="B134" s="1" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C134" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="45">
       <c r="A135" s="1">
         <v>47</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="45">
       <c r="B136" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C136" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="30">
       <c r="A137" s="1">
         <v>48</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="B138" s="1" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="C138" s="1">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>